--- a/first task.xlsx
+++ b/first task.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kudr.max/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kudr.max/PycharmProjects/avito-qa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FF1894-005F-B744-824B-9468CAF16EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDA009C-FA93-3847-8274-585CF51C60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CE19C8F3-4B0C-F14E-BB0C-EEEC4697D813}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,21 +81,29 @@
     <t>В разделе "Фильтры" кнопка "Какое состояние выбрать" не требуется из-за наличия чек-боксов. Убрать кнопку</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,8 +131,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,16 +451,16 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
